--- a/SkyHigh Networkers (Responses).xlsx
+++ b/SkyHigh Networkers (Responses).xlsx
@@ -1,143 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnick\Documents\Personal\Programming\Projects\Profile Generator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE135ED6-39FC-470D-A251-858B92D7F702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>What is your job title?</t>
-  </si>
-  <si>
-    <t>What company do you work at?</t>
-  </si>
-  <si>
-    <t>What are your pronouns?</t>
-  </si>
-  <si>
-    <t>What is your event code?</t>
-  </si>
-  <si>
-    <t>Upload a recent photo of yourself</t>
-  </si>
-  <si>
-    <t>12/26/2021 21:18:43</t>
-  </si>
-  <si>
-    <t>thomas@baker123.com</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Baker</t>
-  </si>
-  <si>
-    <t>Musician</t>
-  </si>
-  <si>
-    <t>Self-Employed</t>
-  </si>
-  <si>
-    <t>He/Him</t>
-  </si>
-  <si>
-    <t>E2B9-KX</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1gCRn8HFseDRI3ZIsJ3wTUurIqAdKUPfr</t>
-  </si>
-  <si>
-    <t>Iris</t>
-  </si>
-  <si>
-    <t>Hassan</t>
-  </si>
-  <si>
-    <t>Biologist</t>
-  </si>
-  <si>
-    <t>AstralOceana</t>
-  </si>
-  <si>
-    <t>She/Her</t>
-  </si>
-  <si>
-    <t>9C2C-HA</t>
-  </si>
-  <si>
-    <t>0_XOALf_yscjgF8P7S.jpg</t>
-  </si>
-  <si>
-    <t>25.1.jpg</t>
-  </si>
-  <si>
-    <t>2017SummerSymposium_073.jpg</t>
-  </si>
-  <si>
-    <t>Hua</t>
-  </si>
-  <si>
-    <t>Liang</t>
-  </si>
-  <si>
-    <t>CloudCommerce</t>
-  </si>
-  <si>
-    <t>6AC1-PN</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>Annika</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>University of San Marinas</t>
-  </si>
-  <si>
-    <t>C110-ZQ</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,14 +50,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -506,146 +374,1033 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Timestamp</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Email Address</v>
+      </c>
+      <c r="C1" t="str">
+        <v>First name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Last name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>What is your job title?</v>
+      </c>
+      <c r="F1" t="str">
+        <v>What company do you work at?</v>
+      </c>
+      <c r="G1" t="str">
+        <v>What are your pronouns?</v>
+      </c>
+      <c r="H1" t="str">
+        <v>What is your event code?</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Upload a recent photo of yourself</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>12/26/2021 21:18:43</v>
+      </c>
+      <c r="B2" t="str">
+        <v>thomas@baker123.com</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Thomas</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Baker</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Trainee Script Editor</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Self-Employed</v>
+      </c>
+      <c r="G2" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H2" t="str">
+        <v>3U13-CF</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://drive.google.com/open?id=1gCRn8HFseDRI3ZIsJ3wTUurIqAdKUPfr</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>Iris</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Hassan</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Pharamacology Intern Student</v>
+      </c>
+      <c r="F3" t="str">
+        <v>AstraZeneca</v>
+      </c>
+      <c r="G3" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H3" t="str">
+        <v>XT2E-1I</v>
+      </c>
+      <c r="I3" t="str">
+        <v>0_XOALf_yscjgF8P7S.jpg</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>Michael</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Pence</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Orthopaedic Scrub Nurse</v>
+      </c>
+      <c r="F4" t="str">
+        <v>NHS</v>
+      </c>
+      <c r="G4" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H4" t="str">
+        <v>VRJC-WV</v>
+      </c>
+      <c r="I4" t="str">
+        <v>191015-quan-neloms-mn-0850.jpg</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>Celine</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Maxwell</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Screenwriter</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Self-Employed</v>
+      </c>
+      <c r="G5" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H5" t="str">
+        <v>FBDD-N2</v>
+      </c>
+      <c r="I5" t="str">
+        <v>2.jpg</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>Annika</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Young</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Biological Sciences PhD Student</v>
+      </c>
+      <c r="F6" t="str">
+        <v>University of San Marinas</v>
+      </c>
+      <c r="G6" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H6" t="str">
+        <v>PO1J-3Z</v>
+      </c>
+      <c r="I6" t="str">
+        <v>2017SummerSymposium_073.jpg</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
+        <v>Hannah</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Blackthorne</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Fashion Designer</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Self-Employed</v>
+      </c>
+      <c r="G7" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H7" t="str">
+        <v>FARD-YH</v>
+      </c>
+      <c r="I7" t="str">
+        <v>24 (2).jpg</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="str">
+        <v>Hua</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Liang</v>
+      </c>
+      <c r="E8" t="str">
+        <v>CEO</v>
+      </c>
+      <c r="F8" t="str">
+        <v>CloudCommerce</v>
+      </c>
+      <c r="G8" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H8" t="str">
+        <v>WXWT-VU</v>
+      </c>
+      <c r="I8" t="str">
+        <v>25.1.jpg</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="str">
+        <v>Thanh-Hiet</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Hoang</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Waitress</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Thanh Binh</v>
+      </c>
+      <c r="G9" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H9" t="str">
+        <v>WPLO-P8</v>
+      </c>
+      <c r="I9" t="str">
+        <v>3632488579_4fa5b6cefe_c.jpg</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="str">
+        <v>Lisa</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Chemist</v>
+      </c>
+      <c r="F10" t="str">
+        <v>-</v>
+      </c>
+      <c r="G10" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H10" t="str">
+        <v>UQYE-V3</v>
+      </c>
+      <c r="I10" t="str">
+        <v>49002772698_2e9bdbc9b3_b.jpg</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="str">
+        <v>Valerie</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Ballelie</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Remote Vehicle Operator</v>
+      </c>
+      <c r="F11" t="str">
+        <v>-</v>
+      </c>
+      <c r="G11" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H11" t="str">
+        <v>4GIW-XZ</v>
+      </c>
+      <c r="I11" t="str">
+        <v>502.jpg</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>Roman</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Cransfield</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Streaming Manager</v>
+      </c>
+      <c r="F12" t="str">
+        <v>-</v>
+      </c>
+      <c r="G12" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H12" t="str">
+        <v>I6YV-E7</v>
+      </c>
+      <c r="I12" t="str">
+        <v>52e14216eab8ea18755bb2c5.jfif</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>Arianna</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Sistra</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Coroner's Officer</v>
+      </c>
+      <c r="F13" t="str">
+        <v>-</v>
+      </c>
+      <c r="G13" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H13" t="str">
+        <v>FOVB-MN</v>
+      </c>
+      <c r="I13" t="str">
+        <v>582.jpg</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>Amy</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Gates</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Senior Content Executive</v>
+      </c>
+      <c r="F14" t="str">
+        <v>-</v>
+      </c>
+      <c r="G14" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H14" t="str">
+        <v>24NR-F2</v>
+      </c>
+      <c r="I14" t="str">
+        <v>605.jpg</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>An</v>
+      </c>
+      <c r="D15" t="str">
+        <v>So-Yeung</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Journalist: Correspondent</v>
+      </c>
+      <c r="F15" t="str">
+        <v>-</v>
+      </c>
+      <c r="G15" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H15" t="str">
+        <v>98R5-6T</v>
+      </c>
+      <c r="I15" t="str">
+        <v>615.jpg</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>Feng</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Xiaoyun</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Stage Manager</v>
+      </c>
+      <c r="F16" t="str">
+        <v>-</v>
+      </c>
+      <c r="G16" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H16" t="str">
+        <v>IXK9-7H</v>
+      </c>
+      <c r="I16" t="str">
+        <v>626.jpg</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>Jennifer</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Ngee</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Lighting Director</v>
+      </c>
+      <c r="F17" t="str">
+        <v>-</v>
+      </c>
+      <c r="G17" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H17" t="str">
+        <v>PXRL-GJ</v>
+      </c>
+      <c r="I17" t="str">
+        <v>628.jpg</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>Kate</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Denton</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Community Cohesion Officer</v>
+      </c>
+      <c r="F18" t="str">
+        <v>-</v>
+      </c>
+      <c r="G18" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H18" t="str">
+        <v>RGC4-SL</v>
+      </c>
+      <c r="I18" t="str">
+        <v>631.jpg</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>Emma</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Haworth</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Hairdresser Apprentice</v>
+      </c>
+      <c r="F19" t="str">
+        <v>-</v>
+      </c>
+      <c r="G19" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H19" t="str">
+        <v>2CXA-DN</v>
+      </c>
+      <c r="I19" t="str">
+        <v>664.jpg</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>Panasuya</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Choi</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Lighting Director</v>
+      </c>
+      <c r="F20" t="str">
+        <v>-</v>
+      </c>
+      <c r="G20" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H20" t="str">
+        <v>S4JH-R4</v>
+      </c>
+      <c r="I20" t="str">
+        <v>700.png</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>Kim</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Ji-Soo</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Solicitor (Civil Law)</v>
+      </c>
+      <c r="F21" t="str">
+        <v>-</v>
+      </c>
+      <c r="G21" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H21" t="str">
+        <v>NLKL-AZ</v>
+      </c>
+      <c r="I21" t="str">
+        <v>725.jpg</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>Alisha</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Mikatoba</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Festival PR Director</v>
+      </c>
+      <c r="F22" t="str">
+        <v>-</v>
+      </c>
+      <c r="G22" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H22" t="str">
+        <v>5FX2-NG</v>
+      </c>
+      <c r="I22" t="str">
+        <v>731.jpg</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>Ghislaine Michaela</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Silverstone</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Supervisor</v>
+      </c>
+      <c r="G23" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H23" t="str">
+        <v>GE1E-E6</v>
+      </c>
+      <c r="I23" t="str">
+        <v>733b.jpg</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>Chung-Ae</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Lin</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Data Analyst</v>
+      </c>
+      <c r="F24" t="str">
+        <v>-</v>
+      </c>
+      <c r="G24" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H24" t="str">
+        <v>OH28-4M</v>
+      </c>
+      <c r="I24" t="str">
+        <v>738.jpg</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>Georgia</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Cook</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Jewellery Designer</v>
+      </c>
+      <c r="F25" t="str">
+        <v>-</v>
+      </c>
+      <c r="G25" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H25" t="str">
+        <v>52AW-58</v>
+      </c>
+      <c r="I25" t="str">
+        <v>74f565c8a602982d492cf76118fc412a.jpg</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>Jeon</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Jungkook</v>
+      </c>
+      <c r="E26" t="str">
+        <v>K-Pop Idol</v>
+      </c>
+      <c r="F26" t="str">
+        <v>-</v>
+      </c>
+      <c r="G26" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H26" t="str">
+        <v>HTNK-3Z</v>
+      </c>
+      <c r="I26" t="str">
+        <v>8aeedff314d02df0127c592b475727e0.jpg</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>Alexandria</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Ocasio-Cortez</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Politician</v>
+      </c>
+      <c r="F27" t="str">
+        <v>People's Action Party</v>
+      </c>
+      <c r="G27" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H27" t="str">
+        <v>XDZK-KK</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Alexandra-Ocasio-Cortez-2000x1125.jpg</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>Kim</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Taejoon</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Gaming Company Director</v>
+      </c>
+      <c r="F28" t="str">
+        <v>-</v>
+      </c>
+      <c r="G28" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H28" t="str">
+        <v>CEHU-G5</v>
+      </c>
+      <c r="I28" t="str">
+        <v>b5cc4e6ce4b93141e92f21795e53904f.jpg</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>Claudette</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Anniston</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Model</v>
+      </c>
+      <c r="F29" t="str">
+        <v>-</v>
+      </c>
+      <c r="G29" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H29" t="str">
+        <v>W9WT-DU</v>
+      </c>
+      <c r="I29" t="str">
+        <v>b6bd3595e13d4b73b51c363182b8e4fe.jpg</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>Melissa</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Downing</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Assistant Learning Officer</v>
+      </c>
+      <c r="F31" t="str">
+        <v>-</v>
+      </c>
+      <c r="G31" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H31" t="str">
+        <v>VI1U-2A</v>
+      </c>
+      <c r="I31" t="str">
+        <v>buket-tosun.1024x1024.jpg</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>Mary</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Nyuyen</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Executive Assistant</v>
+      </c>
+      <c r="F32" t="str">
+        <v>-</v>
+      </c>
+      <c r="G32" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H32" t="str">
+        <v>7VYM-ZU</v>
+      </c>
+      <c r="I32" t="str">
+        <v>DSC_0170.jpg</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>Tamunomiette</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Prelog-Morel</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Assistant Media Scheduler</v>
+      </c>
+      <c r="F33" t="str">
+        <v>-</v>
+      </c>
+      <c r="G33" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H33" t="str">
+        <v>LW8B-XV</v>
+      </c>
+      <c r="I33" t="str">
+        <v>E3MswAmXEAM30Tx.jpg</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>Emma</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Dagogo-Jack</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Conservation Trainee</v>
+      </c>
+      <c r="F34" t="str">
+        <v>-</v>
+      </c>
+      <c r="G34" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H34" t="str">
+        <v>NQGH-U2</v>
+      </c>
+      <c r="I34" t="str">
+        <v>IMG_6052-copy.jpg</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>Ibrahim</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Parker</v>
+      </c>
+      <c r="E35" t="str">
+        <v>YouTube Content Creator</v>
+      </c>
+      <c r="F35" t="str">
+        <v>-</v>
+      </c>
+      <c r="G35" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H35" t="str">
+        <v>53AN-A2</v>
+      </c>
+      <c r="I35" t="str">
+        <v>istockphoto-1208414307-170667a.jpg</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>Jose</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Cote</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Filmmaker And Vlogger</v>
+      </c>
+      <c r="F36" t="str">
+        <v>-</v>
+      </c>
+      <c r="G36" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H36" t="str">
+        <v>9XCT-O8</v>
+      </c>
+      <c r="I36" t="str">
+        <v>istockphoto-1270067126-612x612.jpg</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>Klint</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Himmel</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Digital Engagement Apprentice</v>
+      </c>
+      <c r="F37" t="str">
+        <v>-</v>
+      </c>
+      <c r="G37" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H37" t="str">
+        <v>4IWC-SK</v>
+      </c>
+      <c r="I37" t="str">
+        <v>istockphoto-813935198-612x612.jpg</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>Jennie</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Anying</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Personal Assistant to CEO</v>
+      </c>
+      <c r="F38" t="str">
+        <v>-</v>
+      </c>
+      <c r="G38" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Y5CA-1X</v>
+      </c>
+      <c r="I38" t="str">
+        <v>ladies-smart-casual-long-sleeve-work-shirt-blouse-fitted-office-formal-top.jpg</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>Eleanor</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Sisika</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Freelance Filmmaker</v>
+      </c>
+      <c r="F39" t="str">
+        <v>-</v>
+      </c>
+      <c r="G39" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H39" t="str">
+        <v>LMF7-9D</v>
+      </c>
+      <c r="I39" t="str">
+        <v>lesbian-haircut-3.jpg</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>Lia</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Zhen</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Festival Build Manager</v>
+      </c>
+      <c r="F40" t="str">
+        <v>-</v>
+      </c>
+      <c r="G40" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H40" t="str">
+        <v>IYTB-47</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Lia Zhen (2).jpg</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>Jin-Song</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Moon</v>
+      </c>
+      <c r="F41" t="str">
+        <v>BigHit Entertainment</v>
+      </c>
+      <c r="G41" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H41" t="str">
+        <v>J97M-T7</v>
+      </c>
+      <c r="I41" t="str">
+        <v>original (1).jpg</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>Min</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Taehyung</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Marketing Intern</v>
+      </c>
+      <c r="F42" t="str">
+        <v>HYBE</v>
+      </c>
+      <c r="G42" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H42" t="str">
+        <v>XLLL-1H</v>
+      </c>
+      <c r="I42" t="str">
+        <v>original.jpg</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>Siebold</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Van Zieks</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Phosphorous Solutions</v>
+      </c>
+      <c r="G43" t="str">
+        <v>He/Him</v>
+      </c>
+      <c r="H43" t="str">
+        <v>9THR-XT</v>
+      </c>
+      <c r="I43" t="str">
+        <v>pexels-photo-2379004.jpeg</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>Roxanne</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Hanston</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Librarian</v>
+      </c>
+      <c r="F45" t="str">
+        <v>-</v>
+      </c>
+      <c r="G45" t="str">
+        <v>She/Her</v>
+      </c>
+      <c r="H45" t="str">
+        <v>QHZB-NH</v>
+      </c>
+      <c r="I45" t="str">
+        <v>ssxr-white-ruffled-blazer-with-black-pencil-skirt-white-set.jpg</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>Alex</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Leadbeater</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Digital Marketing Executive</v>
+      </c>
+      <c r="F46" t="str">
+        <v>-</v>
+      </c>
+      <c r="G46" t="str">
+        <v>They/Them</v>
+      </c>
+      <c r="H46" t="str">
+        <v>G8RK-C2</v>
+      </c>
+      <c r="I46" t="str">
+        <v>tutoring-spanish-translator-and-interpreter-offers-spanish-lessons-for-english-speakers-liverpool.jpg</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I3 A4:B26" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I46"/>
   </ignoredErrors>
 </worksheet>
 </file>